--- a/03_Materials/finalize_stimuli/ur/ur_translate2 SPAML Apr 2022.xlsx
+++ b/03_Materials/finalize_stimuli/ur/ur_translate2 SPAML Apr 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mussa\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinbuchanan/GitHub/Research/2_projects/SPAML/SPAML-PSA/03_Materials/finalize_stimuli/ur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C798740-149E-4BF1-A4E3-859C7A3315CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C926D97E-3DE9-0545-A53D-AB5E0FED7169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ur_translate (1)" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7876" uniqueCount="7414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7875" uniqueCount="7415">
   <si>
     <t>ur_target</t>
   </si>
@@ -23712,6 +23712,9 @@
   </si>
   <si>
     <t>بکالہ</t>
+  </si>
+  <si>
+    <t>ابلنا</t>
   </si>
 </sst>
 </file>
@@ -23758,7 +23761,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -24077,24 +24080,23 @@
   <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A980" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1001" sqref="F1001"/>
+      <pane ySplit="1" topLeftCell="A826" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D846" sqref="D846"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="3" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24126,7 +24128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -24158,7 +24160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -24187,7 +24189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -24207,7 +24209,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -24230,7 +24232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -24250,7 +24252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -24279,7 +24281,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -24299,7 +24301,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
@@ -24325,7 +24327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -24348,7 +24350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -24368,7 +24370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -24388,7 +24390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -24408,7 +24410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>76</v>
       </c>
@@ -24428,7 +24430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -24454,7 +24456,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -24480,7 +24482,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
@@ -24503,7 +24505,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -24529,7 +24531,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
@@ -24555,7 +24557,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>110</v>
       </c>
@@ -24575,7 +24577,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
@@ -24601,7 +24603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>122</v>
       </c>
@@ -24624,7 +24626,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>128</v>
       </c>
@@ -24647,7 +24649,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>134</v>
       </c>
@@ -24673,7 +24675,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>140</v>
       </c>
@@ -24699,7 +24701,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
@@ -24719,7 +24721,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>152</v>
       </c>
@@ -24745,7 +24747,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>158</v>
       </c>
@@ -24771,7 +24773,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>164</v>
       </c>
@@ -24794,7 +24796,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>170</v>
       </c>
@@ -24814,7 +24816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>176</v>
       </c>
@@ -24846,7 +24848,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>182</v>
       </c>
@@ -24866,7 +24868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>188</v>
       </c>
@@ -24889,7 +24891,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>194</v>
       </c>
@@ -24909,7 +24911,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>200</v>
       </c>
@@ -24929,7 +24931,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>206</v>
       </c>
@@ -24949,7 +24951,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>212</v>
       </c>
@@ -24972,7 +24974,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>218</v>
       </c>
@@ -24998,7 +25000,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>224</v>
       </c>
@@ -25018,7 +25020,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>230</v>
       </c>
@@ -25041,7 +25043,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>236</v>
       </c>
@@ -25061,7 +25063,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>242</v>
       </c>
@@ -25087,7 +25089,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>248</v>
       </c>
@@ -25107,7 +25109,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>254</v>
       </c>
@@ -25127,7 +25129,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>260</v>
       </c>
@@ -25147,7 +25149,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>266</v>
       </c>
@@ -25170,7 +25172,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>272</v>
       </c>
@@ -25190,7 +25192,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>278</v>
       </c>
@@ -25213,7 +25215,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>284</v>
       </c>
@@ -25242,7 +25244,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>289</v>
       </c>
@@ -25262,7 +25264,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>295</v>
       </c>
@@ -25285,7 +25287,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>301</v>
       </c>
@@ -25311,7 +25313,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>307</v>
       </c>
@@ -25343,7 +25345,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>312</v>
       </c>
@@ -25366,7 +25368,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>318</v>
       </c>
@@ -25386,7 +25388,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>324</v>
       </c>
@@ -25406,7 +25408,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>330</v>
       </c>
@@ -25432,7 +25434,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>336</v>
       </c>
@@ -25464,7 +25466,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>340</v>
       </c>
@@ -25496,7 +25498,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>346</v>
       </c>
@@ -25522,7 +25524,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>352</v>
       </c>
@@ -25542,7 +25544,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>358</v>
       </c>
@@ -25562,7 +25564,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>364</v>
       </c>
@@ -25594,7 +25596,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>370</v>
       </c>
@@ -25614,7 +25616,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>376</v>
       </c>
@@ -25646,7 +25648,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>382</v>
       </c>
@@ -25666,7 +25668,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>388</v>
       </c>
@@ -25686,7 +25688,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>394</v>
       </c>
@@ -25718,7 +25720,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>394</v>
       </c>
@@ -25738,7 +25740,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>404</v>
       </c>
@@ -25758,7 +25760,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>410</v>
       </c>
@@ -25778,7 +25780,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>416</v>
       </c>
@@ -25810,7 +25812,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>422</v>
       </c>
@@ -25842,7 +25844,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>428</v>
       </c>
@@ -25862,7 +25864,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>434</v>
       </c>
@@ -25891,7 +25893,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>440</v>
       </c>
@@ -25911,7 +25913,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>446</v>
       </c>
@@ -25937,7 +25939,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>452</v>
       </c>
@@ -25966,7 +25968,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>458</v>
       </c>
@@ -25989,7 +25991,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>464</v>
       </c>
@@ -26015,7 +26017,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>470</v>
       </c>
@@ -26038,7 +26040,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>476</v>
       </c>
@@ -26058,7 +26060,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>476</v>
       </c>
@@ -26078,7 +26080,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>486</v>
       </c>
@@ -26107,7 +26109,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>492</v>
       </c>
@@ -26133,7 +26135,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>498</v>
       </c>
@@ -26162,7 +26164,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>498</v>
       </c>
@@ -26182,7 +26184,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>508</v>
       </c>
@@ -26208,7 +26210,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>514</v>
       </c>
@@ -26231,7 +26233,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>520</v>
       </c>
@@ -26251,7 +26253,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>526</v>
       </c>
@@ -26277,7 +26279,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>532</v>
       </c>
@@ -26309,7 +26311,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>538</v>
       </c>
@@ -26329,7 +26331,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>544</v>
       </c>
@@ -26349,7 +26351,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>550</v>
       </c>
@@ -26369,7 +26371,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>556</v>
       </c>
@@ -26389,7 +26391,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>562</v>
       </c>
@@ -26412,7 +26414,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>568</v>
       </c>
@@ -26438,7 +26440,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>574</v>
       </c>
@@ -26467,7 +26469,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>578</v>
       </c>
@@ -26493,7 +26495,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>584</v>
       </c>
@@ -26513,7 +26515,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>590</v>
       </c>
@@ -26536,7 +26538,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>596</v>
       </c>
@@ -26556,7 +26558,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>602</v>
       </c>
@@ -26576,7 +26578,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>608</v>
       </c>
@@ -26602,7 +26604,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>614</v>
       </c>
@@ -26622,7 +26624,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>620</v>
       </c>
@@ -26654,7 +26656,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>626</v>
       </c>
@@ -26686,7 +26688,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>632</v>
       </c>
@@ -26706,7 +26708,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>638</v>
       </c>
@@ -26726,7 +26728,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>644</v>
       </c>
@@ -26746,7 +26748,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>650</v>
       </c>
@@ -26769,7 +26771,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>656</v>
       </c>
@@ -26798,7 +26800,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>662</v>
       </c>
@@ -26824,7 +26826,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>662</v>
       </c>
@@ -26856,7 +26858,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>672</v>
       </c>
@@ -26879,7 +26881,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>678</v>
       </c>
@@ -26899,7 +26901,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>684</v>
       </c>
@@ -26922,7 +26924,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>690</v>
       </c>
@@ -26945,7 +26947,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>696</v>
       </c>
@@ -26977,7 +26979,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>702</v>
       </c>
@@ -27003,7 +27005,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>708</v>
       </c>
@@ -27032,7 +27034,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>708</v>
       </c>
@@ -27058,7 +27060,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>718</v>
       </c>
@@ -27084,7 +27086,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>724</v>
       </c>
@@ -27116,7 +27118,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>730</v>
       </c>
@@ -27145,7 +27147,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>736</v>
       </c>
@@ -27168,7 +27170,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>742</v>
       </c>
@@ -27188,7 +27190,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>748</v>
       </c>
@@ -27211,7 +27213,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>754</v>
       </c>
@@ -27237,7 +27239,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>760</v>
       </c>
@@ -27260,7 +27262,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>766</v>
       </c>
@@ -27283,7 +27285,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>772</v>
       </c>
@@ -27312,7 +27314,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>772</v>
       </c>
@@ -27338,7 +27340,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>781</v>
       </c>
@@ -27370,7 +27372,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>787</v>
       </c>
@@ -27396,7 +27398,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>792</v>
       </c>
@@ -27428,7 +27430,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>798</v>
       </c>
@@ -27448,7 +27450,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>804</v>
       </c>
@@ -27477,7 +27479,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>809</v>
       </c>
@@ -27497,7 +27499,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>815</v>
       </c>
@@ -27517,7 +27519,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>821</v>
       </c>
@@ -27540,7 +27542,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>827</v>
       </c>
@@ -27560,7 +27562,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>827</v>
       </c>
@@ -27592,7 +27594,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>837</v>
       </c>
@@ -27612,7 +27614,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>843</v>
       </c>
@@ -27635,7 +27637,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>849</v>
       </c>
@@ -27655,7 +27657,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>855</v>
       </c>
@@ -27675,7 +27677,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>861</v>
       </c>
@@ -27695,7 +27697,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>867</v>
       </c>
@@ -27715,7 +27717,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>873</v>
       </c>
@@ -27741,7 +27743,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>877</v>
       </c>
@@ -27773,7 +27775,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>883</v>
       </c>
@@ -27799,7 +27801,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>889</v>
       </c>
@@ -27825,7 +27827,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>895</v>
       </c>
@@ -27848,7 +27850,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>901</v>
       </c>
@@ -27877,7 +27879,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>901</v>
       </c>
@@ -27909,7 +27911,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>909</v>
       </c>
@@ -27941,7 +27943,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>915</v>
       </c>
@@ -27967,7 +27969,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>921</v>
       </c>
@@ -27996,7 +27998,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>927</v>
       </c>
@@ -28022,7 +28024,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>933</v>
       </c>
@@ -28048,7 +28050,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>937</v>
       </c>
@@ -28071,7 +28073,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>943</v>
       </c>
@@ -28097,7 +28099,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>949</v>
       </c>
@@ -28123,7 +28125,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>955</v>
       </c>
@@ -28149,7 +28151,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>961</v>
       </c>
@@ -28172,7 +28174,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>967</v>
       </c>
@@ -28198,7 +28200,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>973</v>
       </c>
@@ -28218,7 +28220,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>979</v>
       </c>
@@ -28250,7 +28252,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>985</v>
       </c>
@@ -28279,7 +28281,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>579</v>
       </c>
@@ -28299,7 +28301,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>995</v>
       </c>
@@ -28319,7 +28321,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>1001</v>
       </c>
@@ -28342,7 +28344,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>1007</v>
       </c>
@@ -28374,7 +28376,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>1013</v>
       </c>
@@ -28394,7 +28396,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>1019</v>
       </c>
@@ -28414,7 +28416,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>1025</v>
       </c>
@@ -28434,7 +28436,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>1030</v>
       </c>
@@ -28454,7 +28456,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>1036</v>
       </c>
@@ -28480,7 +28482,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>1041</v>
       </c>
@@ -28512,7 +28514,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>1047</v>
       </c>
@@ -28538,7 +28540,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>1053</v>
       </c>
@@ -28564,7 +28566,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>1058</v>
       </c>
@@ -28590,7 +28592,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>1064</v>
       </c>
@@ -28610,7 +28612,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>1070</v>
       </c>
@@ -28636,7 +28638,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>1070</v>
       </c>
@@ -28668,7 +28670,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>1079</v>
       </c>
@@ -28694,7 +28696,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>1085</v>
       </c>
@@ -28714,7 +28716,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>1091</v>
       </c>
@@ -28746,7 +28748,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>1097</v>
       </c>
@@ -28772,7 +28774,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>1103</v>
       </c>
@@ -28798,7 +28800,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>1109</v>
       </c>
@@ -28818,7 +28820,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>1115</v>
       </c>
@@ -28838,7 +28840,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>1121</v>
       </c>
@@ -28861,7 +28863,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>1127</v>
       </c>
@@ -28887,7 +28889,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>1132</v>
       </c>
@@ -28913,7 +28915,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>1137</v>
       </c>
@@ -28945,7 +28947,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>1142</v>
       </c>
@@ -28965,7 +28967,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>1148</v>
       </c>
@@ -28985,7 +28987,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>1154</v>
       </c>
@@ -29005,7 +29007,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>1160</v>
       </c>
@@ -29025,7 +29027,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>1166</v>
       </c>
@@ -29048,7 +29050,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>1172</v>
       </c>
@@ -29080,7 +29082,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>1178</v>
       </c>
@@ -29106,7 +29108,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>1178</v>
       </c>
@@ -29126,7 +29128,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>1188</v>
       </c>
@@ -29149,7 +29151,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>1194</v>
       </c>
@@ -29169,7 +29171,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>1200</v>
       </c>
@@ -29195,7 +29197,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>1206</v>
       </c>
@@ -29215,7 +29217,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>1212</v>
       </c>
@@ -29238,7 +29240,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>1218</v>
       </c>
@@ -29258,7 +29260,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>1224</v>
       </c>
@@ -29278,7 +29280,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>1230</v>
       </c>
@@ -29310,7 +29312,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>1236</v>
       </c>
@@ -29330,7 +29332,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>1242</v>
       </c>
@@ -29350,7 +29352,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>1248</v>
       </c>
@@ -29376,7 +29378,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>1254</v>
       </c>
@@ -29408,7 +29410,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>1260</v>
       </c>
@@ -29428,7 +29430,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>1266</v>
       </c>
@@ -29454,7 +29456,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>1272</v>
       </c>
@@ -29477,7 +29479,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>1278</v>
       </c>
@@ -29509,7 +29511,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>1284</v>
       </c>
@@ -29532,7 +29534,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>1290</v>
       </c>
@@ -29555,7 +29557,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>1296</v>
       </c>
@@ -29587,7 +29589,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>1302</v>
       </c>
@@ -29616,7 +29618,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>1308</v>
       </c>
@@ -29639,7 +29641,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>1314</v>
       </c>
@@ -29659,7 +29661,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>1320</v>
       </c>
@@ -29688,7 +29690,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>1326</v>
       </c>
@@ -29711,7 +29713,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>1326</v>
       </c>
@@ -29731,7 +29733,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>1336</v>
       </c>
@@ -29751,7 +29753,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>1342</v>
       </c>
@@ -29783,7 +29785,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>1348</v>
       </c>
@@ -29809,7 +29811,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>1354</v>
       </c>
@@ -29832,7 +29834,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>1358</v>
       </c>
@@ -29852,7 +29854,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>1364</v>
       </c>
@@ -29875,7 +29877,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>1370</v>
       </c>
@@ -29901,7 +29903,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>1376</v>
       </c>
@@ -29921,7 +29923,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>1382</v>
       </c>
@@ -29944,7 +29946,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>1388</v>
       </c>
@@ -29973,7 +29975,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>1394</v>
       </c>
@@ -29996,7 +29998,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>1398</v>
       </c>
@@ -30019,7 +30021,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>1404</v>
       </c>
@@ -30039,7 +30041,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
         <v>1410</v>
       </c>
@@ -30071,7 +30073,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>1415</v>
       </c>
@@ -30091,7 +30093,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
         <v>1421</v>
       </c>
@@ -30117,7 +30119,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>1421</v>
       </c>
@@ -30146,7 +30148,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>1421</v>
       </c>
@@ -30172,7 +30174,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>1435</v>
       </c>
@@ -30195,7 +30197,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
         <v>1441</v>
       </c>
@@ -30215,7 +30217,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
         <v>1447</v>
       </c>
@@ -30241,7 +30243,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>1453</v>
       </c>
@@ -30270,7 +30272,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>1457</v>
       </c>
@@ -30296,7 +30298,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>1463</v>
       </c>
@@ -30319,7 +30321,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>1469</v>
       </c>
@@ -30345,7 +30347,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>1475</v>
       </c>
@@ -30365,7 +30367,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>1481</v>
       </c>
@@ -30391,7 +30393,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>1481</v>
       </c>
@@ -30417,7 +30419,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>1490</v>
       </c>
@@ -30440,7 +30442,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>1496</v>
       </c>
@@ -30466,7 +30468,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
         <v>1502</v>
       </c>
@@ -30492,7 +30494,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>1416</v>
       </c>
@@ -30515,7 +30517,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>1510</v>
       </c>
@@ -30535,7 +30537,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>1516</v>
       </c>
@@ -30567,7 +30569,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
         <v>1516</v>
       </c>
@@ -30599,7 +30601,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>1525</v>
       </c>
@@ -30625,7 +30627,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>1531</v>
       </c>
@@ -30645,7 +30647,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>1537</v>
       </c>
@@ -30671,7 +30673,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
         <v>1537</v>
       </c>
@@ -30700,7 +30702,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>1547</v>
       </c>
@@ -30720,7 +30722,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>1553</v>
       </c>
@@ -30746,7 +30748,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>1558</v>
       </c>
@@ -30769,7 +30771,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>1564</v>
       </c>
@@ -30795,7 +30797,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>1569</v>
       </c>
@@ -30815,7 +30817,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>1575</v>
       </c>
@@ -30838,7 +30840,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>1581</v>
       </c>
@@ -30861,7 +30863,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>1587</v>
       </c>
@@ -30887,7 +30889,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>1593</v>
       </c>
@@ -30907,7 +30909,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>1599</v>
       </c>
@@ -30939,7 +30941,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>1605</v>
       </c>
@@ -30965,7 +30967,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>1611</v>
       </c>
@@ -30985,7 +30987,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>1617</v>
       </c>
@@ -31014,7 +31016,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>1621</v>
       </c>
@@ -31043,7 +31045,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>1627</v>
       </c>
@@ -31066,7 +31068,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
         <v>1633</v>
       </c>
@@ -31086,7 +31088,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
         <v>1639</v>
       </c>
@@ -31109,7 +31111,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>1645</v>
       </c>
@@ -31138,7 +31140,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>1650</v>
       </c>
@@ -31158,7 +31160,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>1656</v>
       </c>
@@ -31190,7 +31192,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>1662</v>
       </c>
@@ -31210,7 +31212,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
         <v>1668</v>
       </c>
@@ -31236,7 +31238,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>1674</v>
       </c>
@@ -31259,7 +31261,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
         <v>1680</v>
       </c>
@@ -31282,7 +31284,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>1686</v>
       </c>
@@ -31311,7 +31313,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>1691</v>
       </c>
@@ -31334,7 +31336,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>1697</v>
       </c>
@@ -31366,7 +31368,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>1703</v>
       </c>
@@ -31395,7 +31397,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>1709</v>
       </c>
@@ -31421,7 +31423,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>1715</v>
       </c>
@@ -31453,7 +31455,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>1721</v>
       </c>
@@ -31476,7 +31478,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
         <v>1727</v>
       </c>
@@ -31496,7 +31498,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>1733</v>
       </c>
@@ -31519,7 +31521,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
         <v>1739</v>
       </c>
@@ -31545,7 +31547,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>1745</v>
       </c>
@@ -31577,7 +31579,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
         <v>1751</v>
       </c>
@@ -31603,7 +31605,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>1757</v>
       </c>
@@ -31635,7 +31637,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
         <v>1763</v>
       </c>
@@ -31655,7 +31657,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>1769</v>
       </c>
@@ -31681,7 +31683,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
         <v>1775</v>
       </c>
@@ -31710,7 +31712,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>1781</v>
       </c>
@@ -31736,7 +31738,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
         <v>1785</v>
       </c>
@@ -31756,7 +31758,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>1791</v>
       </c>
@@ -31785,7 +31787,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>1796</v>
       </c>
@@ -31811,7 +31813,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
         <v>1802</v>
       </c>
@@ -31831,7 +31833,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>1808</v>
       </c>
@@ -31857,7 +31859,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
         <v>1814</v>
       </c>
@@ -31880,7 +31882,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>1820</v>
       </c>
@@ -31906,7 +31908,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
         <v>1826</v>
       </c>
@@ -31932,7 +31934,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>1832</v>
       </c>
@@ -31964,7 +31966,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
         <v>1838</v>
       </c>
@@ -31993,7 +31995,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
         <v>1844</v>
       </c>
@@ -32025,7 +32027,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
         <v>1848</v>
       </c>
@@ -32048,7 +32050,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>1848</v>
       </c>
@@ -32074,7 +32076,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
         <v>1858</v>
       </c>
@@ -32097,7 +32099,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
         <v>1864</v>
       </c>
@@ -32120,7 +32122,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
         <v>1870</v>
       </c>
@@ -32152,7 +32154,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
         <v>1875</v>
       </c>
@@ -32181,7 +32183,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
         <v>1879</v>
       </c>
@@ -32201,7 +32203,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
         <v>1885</v>
       </c>
@@ -32227,7 +32229,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
         <v>1890</v>
       </c>
@@ -32259,7 +32261,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
         <v>1896</v>
       </c>
@@ -32279,7 +32281,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
         <v>1902</v>
       </c>
@@ -32305,7 +32307,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
         <v>1908</v>
       </c>
@@ -32331,7 +32333,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
         <v>1914</v>
       </c>
@@ -32360,7 +32362,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
         <v>1919</v>
       </c>
@@ -32386,7 +32388,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
         <v>1925</v>
       </c>
@@ -32418,7 +32420,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
         <v>1930</v>
       </c>
@@ -32444,7 +32446,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
         <v>1936</v>
       </c>
@@ -32470,7 +32472,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
         <v>1942</v>
       </c>
@@ -32496,7 +32498,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>1948</v>
       </c>
@@ -32519,7 +32521,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
         <v>1952</v>
       </c>
@@ -32539,7 +32541,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
         <v>1958</v>
       </c>
@@ -32565,7 +32567,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
         <v>1964</v>
       </c>
@@ -32594,7 +32596,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
         <v>1969</v>
       </c>
@@ -32620,7 +32622,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
         <v>1975</v>
       </c>
@@ -32649,7 +32651,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
         <v>1981</v>
       </c>
@@ -32672,7 +32674,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
         <v>1987</v>
       </c>
@@ -32701,7 +32703,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
         <v>1993</v>
       </c>
@@ -32721,7 +32723,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
         <v>1999</v>
       </c>
@@ -32747,7 +32749,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
         <v>2005</v>
       </c>
@@ -32776,7 +32778,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
         <v>2011</v>
       </c>
@@ -32802,7 +32804,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
         <v>2017</v>
       </c>
@@ -32834,7 +32836,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
         <v>2023</v>
       </c>
@@ -32863,7 +32865,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
         <v>2029</v>
       </c>
@@ -32895,7 +32897,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
         <v>2035</v>
       </c>
@@ -32927,7 +32929,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
         <v>2040</v>
       </c>
@@ -32947,7 +32949,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
         <v>2046</v>
       </c>
@@ -32973,7 +32975,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
         <v>2052</v>
       </c>
@@ -33002,7 +33004,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
         <v>2058</v>
       </c>
@@ -33034,7 +33036,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
         <v>2064</v>
       </c>
@@ -33066,7 +33068,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
         <v>2069</v>
       </c>
@@ -33098,7 +33100,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
         <v>2075</v>
       </c>
@@ -33118,7 +33120,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
         <v>2081</v>
       </c>
@@ -33144,7 +33146,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
         <v>2087</v>
       </c>
@@ -33170,7 +33172,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
         <v>2093</v>
       </c>
@@ -33202,7 +33204,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>2099</v>
       </c>
@@ -33222,7 +33224,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
         <v>2105</v>
       </c>
@@ -33242,7 +33244,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
         <v>2111</v>
       </c>
@@ -33265,7 +33267,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
         <v>2117</v>
       </c>
@@ -33294,7 +33296,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
         <v>1285</v>
       </c>
@@ -33320,7 +33322,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
         <v>2125</v>
       </c>
@@ -33346,7 +33348,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
         <v>2131</v>
       </c>
@@ -33375,7 +33377,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
         <v>2137</v>
       </c>
@@ -33395,7 +33397,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
         <v>2143</v>
       </c>
@@ -33415,7 +33417,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
         <v>816</v>
       </c>
@@ -33435,7 +33437,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
         <v>2154</v>
       </c>
@@ -33461,7 +33463,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
         <v>2160</v>
       </c>
@@ -33484,7 +33486,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
         <v>2166</v>
       </c>
@@ -33507,7 +33509,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
         <v>2172</v>
       </c>
@@ -33533,7 +33535,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
         <v>2177</v>
       </c>
@@ -33559,7 +33561,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
         <v>2183</v>
       </c>
@@ -33579,7 +33581,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
         <v>1809</v>
       </c>
@@ -33611,7 +33613,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
         <v>2192</v>
       </c>
@@ -33631,7 +33633,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
         <v>2198</v>
       </c>
@@ -33651,7 +33653,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
         <v>1497</v>
       </c>
@@ -33671,7 +33673,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
         <v>2209</v>
       </c>
@@ -33700,7 +33702,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
         <v>1155</v>
       </c>
@@ -33726,7 +33728,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
         <v>2218</v>
       </c>
@@ -33752,7 +33754,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
         <v>2224</v>
       </c>
@@ -33775,7 +33777,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
         <v>2230</v>
       </c>
@@ -33801,7 +33803,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
         <v>2236</v>
       </c>
@@ -33821,7 +33823,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
         <v>2241</v>
       </c>
@@ -33850,7 +33852,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
         <v>833</v>
       </c>
@@ -33870,7 +33872,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
         <v>2252</v>
       </c>
@@ -33893,7 +33895,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
         <v>2258</v>
       </c>
@@ -33922,7 +33924,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
         <v>2264</v>
       </c>
@@ -33945,7 +33947,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
         <v>2270</v>
       </c>
@@ -33971,7 +33973,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
         <v>2275</v>
       </c>
@@ -34000,7 +34002,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
         <v>2280</v>
       </c>
@@ -34020,7 +34022,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
         <v>2286</v>
       </c>
@@ -34049,7 +34051,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
         <v>2291</v>
       </c>
@@ -34075,7 +34077,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
         <v>2291</v>
       </c>
@@ -34107,7 +34109,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
         <v>2300</v>
       </c>
@@ -34133,7 +34135,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
         <v>2304</v>
       </c>
@@ -34159,7 +34161,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
         <v>2310</v>
       </c>
@@ -34179,7 +34181,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
         <v>2316</v>
       </c>
@@ -34202,7 +34204,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
         <v>2322</v>
       </c>
@@ -34228,7 +34230,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
         <v>2328</v>
       </c>
@@ -34254,7 +34256,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
         <v>2328</v>
       </c>
@@ -34286,7 +34288,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
         <v>2338</v>
       </c>
@@ -34312,7 +34314,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
         <v>2343</v>
       </c>
@@ -34338,7 +34340,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
         <v>2343</v>
       </c>
@@ -34370,7 +34372,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
         <v>2353</v>
       </c>
@@ -34396,7 +34398,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
         <v>2358</v>
       </c>
@@ -34422,7 +34424,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
         <v>2364</v>
       </c>
@@ -34442,7 +34444,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
         <v>2370</v>
       </c>
@@ -34468,7 +34470,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
         <v>2376</v>
       </c>
@@ -34494,7 +34496,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
         <v>2382</v>
       </c>
@@ -34523,7 +34525,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
         <v>2386</v>
       </c>
@@ -34549,7 +34551,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
         <v>2392</v>
       </c>
@@ -34578,7 +34580,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
         <v>2398</v>
       </c>
@@ -34598,7 +34600,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
         <v>2404</v>
       </c>
@@ -34621,7 +34623,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
         <v>2410</v>
       </c>
@@ -34650,7 +34652,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
         <v>2416</v>
       </c>
@@ -34682,7 +34684,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
         <v>2422</v>
       </c>
@@ -34705,7 +34707,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
         <v>2428</v>
       </c>
@@ -34731,7 +34733,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
         <v>2434</v>
       </c>
@@ -34754,7 +34756,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
         <v>2440</v>
       </c>
@@ -34774,7 +34776,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
         <v>2444</v>
       </c>
@@ -34794,7 +34796,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
         <v>2450</v>
       </c>
@@ -34814,7 +34816,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
         <v>2456</v>
       </c>
@@ -34840,7 +34842,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
         <v>2461</v>
       </c>
@@ -34860,7 +34862,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>2461</v>
       </c>
@@ -34892,7 +34894,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
         <v>2469</v>
       </c>
@@ -34921,7 +34923,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
         <v>1803</v>
       </c>
@@ -34947,7 +34949,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
         <v>2479</v>
       </c>
@@ -34973,7 +34975,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
         <v>2485</v>
       </c>
@@ -35005,7 +35007,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
         <v>2491</v>
       </c>
@@ -35031,7 +35033,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
         <v>2497</v>
       </c>
@@ -35051,7 +35053,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
         <v>2503</v>
       </c>
@@ -35071,7 +35073,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
         <v>2509</v>
       </c>
@@ -35100,7 +35102,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
         <v>2515</v>
       </c>
@@ -35123,7 +35125,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
         <v>2521</v>
       </c>
@@ -35149,7 +35151,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
         <v>2521</v>
       </c>
@@ -35181,7 +35183,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
         <v>2529</v>
       </c>
@@ -35207,7 +35209,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
         <v>2535</v>
       </c>
@@ -35233,7 +35235,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
         <v>2541</v>
       </c>
@@ -35256,7 +35258,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
         <v>2547</v>
       </c>
@@ -35285,7 +35287,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
         <v>2553</v>
       </c>
@@ -35311,7 +35313,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
         <v>2553</v>
       </c>
@@ -35343,7 +35345,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
         <v>2561</v>
       </c>
@@ -35366,7 +35368,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
         <v>822</v>
       </c>
@@ -35389,7 +35391,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
         <v>2571</v>
       </c>
@@ -35409,7 +35411,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
         <v>2577</v>
       </c>
@@ -35435,7 +35437,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
         <v>2583</v>
       </c>
@@ -35458,7 +35460,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
         <v>2589</v>
       </c>
@@ -35490,7 +35492,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
         <v>2594</v>
       </c>
@@ -35522,7 +35524,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
         <v>2600</v>
       </c>
@@ -35551,7 +35553,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
         <v>2606</v>
       </c>
@@ -35583,12 +35585,12 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
         <v>2612</v>
       </c>
       <c r="B461" t="s">
-        <v>6373</v>
+        <v>7414</v>
       </c>
       <c r="C461" s="1" t="s">
         <v>2613</v>
@@ -35609,7 +35611,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
         <v>2618</v>
       </c>
@@ -35632,7 +35634,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
         <v>2624</v>
       </c>
@@ -35652,7 +35654,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
         <v>2630</v>
       </c>
@@ -35672,7 +35674,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
         <v>2636</v>
       </c>
@@ -35698,7 +35700,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
         <v>2642</v>
       </c>
@@ -35724,7 +35726,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
         <v>2648</v>
       </c>
@@ -35756,7 +35758,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
         <v>2653</v>
       </c>
@@ -35776,7 +35778,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
         <v>2349</v>
       </c>
@@ -35808,7 +35810,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
         <v>2662</v>
       </c>
@@ -35828,7 +35830,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
         <v>2667</v>
       </c>
@@ -35860,7 +35862,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
         <v>2673</v>
       </c>
@@ -35892,7 +35894,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
         <v>2679</v>
       </c>
@@ -35924,7 +35926,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
         <v>2685</v>
       </c>
@@ -35950,7 +35952,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
         <v>2691</v>
       </c>
@@ -35976,7 +35978,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
         <v>2697</v>
       </c>
@@ -36008,7 +36010,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
         <v>2702</v>
       </c>
@@ -36028,7 +36030,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
         <v>2708</v>
       </c>
@@ -36057,7 +36059,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
         <v>2714</v>
       </c>
@@ -36089,7 +36091,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
         <v>2720</v>
       </c>
@@ -36115,7 +36117,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
         <v>2726</v>
       </c>
@@ -36135,7 +36137,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
         <v>2732</v>
       </c>
@@ -36164,7 +36166,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
         <v>2737</v>
       </c>
@@ -36196,7 +36198,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
         <v>2743</v>
       </c>
@@ -36225,7 +36227,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
         <v>2749</v>
       </c>
@@ -36248,7 +36250,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
         <v>2744</v>
       </c>
@@ -36280,7 +36282,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
         <v>2760</v>
       </c>
@@ -36300,7 +36302,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
         <v>2766</v>
       </c>
@@ -36323,7 +36325,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A489" s="1" t="s">
         <v>2772</v>
       </c>
@@ -36355,7 +36357,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A490" s="1" t="s">
         <v>2775</v>
       </c>
@@ -36384,7 +36386,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
         <v>2780</v>
       </c>
@@ -36410,7 +36412,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A492" s="1" t="s">
         <v>2786</v>
       </c>
@@ -36439,7 +36441,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A493" s="1" t="s">
         <v>2791</v>
       </c>
@@ -36468,7 +36470,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A494" s="1" t="s">
         <v>2797</v>
       </c>
@@ -36500,7 +36502,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A495" s="1" t="s">
         <v>2803</v>
       </c>
@@ -36523,7 +36525,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A496" s="1" t="s">
         <v>2809</v>
       </c>
@@ -36546,7 +36548,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A497" s="1" t="s">
         <v>2814</v>
       </c>
@@ -36578,7 +36580,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A498" s="1" t="s">
         <v>2820</v>
       </c>
@@ -36598,7 +36600,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A499" s="1" t="s">
         <v>2826</v>
       </c>
@@ -36624,7 +36626,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A500" s="1" t="s">
         <v>2832</v>
       </c>
@@ -36650,7 +36652,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A501" s="1" t="s">
         <v>2838</v>
       </c>
@@ -36670,7 +36672,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A502" s="1" t="s">
         <v>2844</v>
       </c>
@@ -36696,7 +36698,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A503" s="1" t="s">
         <v>2850</v>
       </c>
@@ -36716,7 +36718,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A504" s="1" t="s">
         <v>2856</v>
       </c>
@@ -36748,7 +36750,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A505" s="1" t="s">
         <v>2862</v>
       </c>
@@ -36771,7 +36773,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A506" s="1" t="s">
         <v>2868</v>
       </c>
@@ -36797,7 +36799,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A507" s="1" t="s">
         <v>2874</v>
       </c>
@@ -36820,7 +36822,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A508" s="1" t="s">
         <v>2880</v>
       </c>
@@ -36843,7 +36845,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A509" s="1" t="s">
         <v>2885</v>
       </c>
@@ -36863,7 +36865,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A510" s="1" t="s">
         <v>2891</v>
       </c>
@@ -36895,7 +36897,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A511" s="1" t="s">
         <v>2897</v>
       </c>
@@ -36927,7 +36929,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A512" s="1" t="s">
         <v>2903</v>
       </c>
@@ -36956,7 +36958,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A513" s="1" t="s">
         <v>2909</v>
       </c>
@@ -36982,7 +36984,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A514" s="1" t="s">
         <v>2913</v>
       </c>
@@ -37011,7 +37013,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A515" s="1" t="s">
         <v>2918</v>
       </c>
@@ -37037,7 +37039,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A516" s="1" t="s">
         <v>2924</v>
       </c>
@@ -37063,7 +37065,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A517" s="1" t="s">
         <v>2930</v>
       </c>
@@ -37089,7 +37091,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A518" s="1" t="s">
         <v>2936</v>
       </c>
@@ -37115,7 +37117,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A519" s="1" t="s">
         <v>2942</v>
       </c>
@@ -37141,7 +37143,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A520" s="1" t="s">
         <v>2948</v>
       </c>
@@ -37167,7 +37169,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A521" s="1" t="s">
         <v>2954</v>
       </c>
@@ -37196,7 +37198,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A522" s="1" t="s">
         <v>2960</v>
       </c>
@@ -37228,7 +37230,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A523" s="1" t="s">
         <v>2966</v>
       </c>
@@ -37260,7 +37262,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A524" s="1" t="s">
         <v>2972</v>
       </c>
@@ -37292,7 +37294,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A525" s="1" t="s">
         <v>2978</v>
       </c>
@@ -37321,7 +37323,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A526" s="1" t="s">
         <v>2984</v>
       </c>
@@ -37344,7 +37346,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A527" s="1" t="s">
         <v>2990</v>
       </c>
@@ -37367,7 +37369,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A528" s="1" t="s">
         <v>2996</v>
       </c>
@@ -37396,7 +37398,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A529" s="1" t="s">
         <v>3002</v>
       </c>
@@ -37428,7 +37430,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A530" s="1" t="s">
         <v>3008</v>
       </c>
@@ -37454,7 +37456,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A531" s="1" t="s">
         <v>3012</v>
       </c>
@@ -37480,7 +37482,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A532" s="1" t="s">
         <v>3018</v>
       </c>
@@ -37503,7 +37505,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A533" s="1" t="s">
         <v>3024</v>
       </c>
@@ -37529,7 +37531,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A534" s="1" t="s">
         <v>3030</v>
       </c>
@@ -37555,7 +37557,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A535" s="1" t="s">
         <v>3036</v>
       </c>
@@ -37587,7 +37589,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A536" s="1" t="s">
         <v>3036</v>
       </c>
@@ -37613,7 +37615,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A537" s="1" t="s">
         <v>3046</v>
       </c>
@@ -37639,7 +37641,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A538" s="1" t="s">
         <v>3051</v>
       </c>
@@ -37665,7 +37667,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A539" s="1" t="s">
         <v>3057</v>
       </c>
@@ -37685,7 +37687,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A540" s="1" t="s">
         <v>3063</v>
       </c>
@@ -37708,7 +37710,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A541" s="1" t="s">
         <v>3069</v>
       </c>
@@ -37740,7 +37742,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A542" s="1" t="s">
         <v>3075</v>
       </c>
@@ -37772,7 +37774,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A543" s="1" t="s">
         <v>3081</v>
       </c>
@@ -37804,7 +37806,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A544" s="1" t="s">
         <v>3081</v>
       </c>
@@ -37824,7 +37826,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A545" s="1" t="s">
         <v>3091</v>
       </c>
@@ -37853,7 +37855,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A546" s="1" t="s">
         <v>3097</v>
       </c>
@@ -37885,7 +37887,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A547" s="1" t="s">
         <v>3103</v>
       </c>
@@ -37911,7 +37913,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A548" s="1" t="s">
         <v>3107</v>
       </c>
@@ -37937,7 +37939,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A549" s="1" t="s">
         <v>3113</v>
       </c>
@@ -37969,7 +37971,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A550" s="1" t="s">
         <v>3118</v>
       </c>
@@ -37995,7 +37997,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A551" s="1" t="s">
         <v>3123</v>
       </c>
@@ -38027,7 +38029,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A552" s="1" t="s">
         <v>3127</v>
       </c>
@@ -38059,7 +38061,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A553" s="1" t="s">
         <v>3133</v>
       </c>
@@ -38088,7 +38090,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A554" s="1" t="s">
         <v>3139</v>
       </c>
@@ -38120,7 +38122,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A555" s="1" t="s">
         <v>3145</v>
       </c>
@@ -38149,7 +38151,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A556" s="1" t="s">
         <v>3151</v>
       </c>
@@ -38175,7 +38177,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A557" s="1" t="s">
         <v>3156</v>
       </c>
@@ -38207,7 +38209,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A558" s="1" t="s">
         <v>3162</v>
       </c>
@@ -38239,7 +38241,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A559" s="1" t="s">
         <v>3168</v>
       </c>
@@ -38271,7 +38273,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A560" s="1" t="s">
         <v>3174</v>
       </c>
@@ -38300,7 +38302,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A561" s="1" t="s">
         <v>3180</v>
       </c>
@@ -38326,7 +38328,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A562" s="1" t="s">
         <v>3185</v>
       </c>
@@ -38355,7 +38357,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A563" s="1" t="s">
         <v>3191</v>
       </c>
@@ -38381,7 +38383,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A564" s="1" t="s">
         <v>3197</v>
       </c>
@@ -38410,7 +38412,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A565" s="1" t="s">
         <v>3203</v>
       </c>
@@ -38433,7 +38435,7 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A566" s="1" t="s">
         <v>3209</v>
       </c>
@@ -38462,7 +38464,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A567" s="1" t="s">
         <v>3213</v>
       </c>
@@ -38485,7 +38487,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A568" s="1" t="s">
         <v>3219</v>
       </c>
@@ -38508,7 +38510,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A569" s="1" t="s">
         <v>3225</v>
       </c>
@@ -38540,7 +38542,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A570" s="1" t="s">
         <v>1965</v>
       </c>
@@ -38566,7 +38568,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A571" s="1" t="s">
         <v>3235</v>
       </c>
@@ -38592,7 +38594,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A572" s="1" t="s">
         <v>3240</v>
       </c>
@@ -38612,7 +38614,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A573" s="1" t="s">
         <v>3246</v>
       </c>
@@ -38635,7 +38637,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A574" s="1" t="s">
         <v>3252</v>
       </c>
@@ -38667,7 +38669,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A575" s="1" t="s">
         <v>3256</v>
       </c>
@@ -38693,7 +38695,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A576" s="1" t="s">
         <v>3256</v>
       </c>
@@ -38716,7 +38718,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A577" s="1" t="s">
         <v>3266</v>
       </c>
@@ -38742,7 +38744,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A578" s="1" t="s">
         <v>3272</v>
       </c>
@@ -38762,7 +38764,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A579" s="1" t="s">
         <v>1833</v>
       </c>
@@ -38788,7 +38790,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A580" s="1" t="s">
         <v>3280</v>
       </c>
@@ -38817,7 +38819,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A581" s="1" t="s">
         <v>3285</v>
       </c>
@@ -38846,7 +38848,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A582" s="1" t="s">
         <v>3291</v>
       </c>
@@ -38869,7 +38871,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A583" s="1" t="s">
         <v>3297</v>
       </c>
@@ -38892,7 +38894,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A584" s="1" t="s">
         <v>3303</v>
       </c>
@@ -38924,7 +38926,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A585" s="1" t="s">
         <v>1092</v>
       </c>
@@ -38953,7 +38955,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A586" s="1" t="s">
         <v>3314</v>
       </c>
@@ -38973,7 +38975,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A587" s="1" t="s">
         <v>3320</v>
       </c>
@@ -39005,7 +39007,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A588" s="1" t="s">
         <v>3326</v>
       </c>
@@ -39037,7 +39039,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A589" s="1" t="s">
         <v>3332</v>
       </c>
@@ -39057,7 +39059,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A590" s="1" t="s">
         <v>3338</v>
       </c>
@@ -39077,7 +39079,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A591" s="1" t="s">
         <v>2138</v>
       </c>
@@ -39109,7 +39111,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A592" s="1" t="s">
         <v>3348</v>
       </c>
@@ -39135,7 +39137,7 @@
         <v>3353</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A593" s="1" t="s">
         <v>3354</v>
       </c>
@@ -39167,7 +39169,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A594" s="1" t="s">
         <v>3358</v>
       </c>
@@ -39193,7 +39195,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A595" s="1" t="s">
         <v>3364</v>
       </c>
@@ -39225,7 +39227,7 @@
         <v>3369</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A596" s="1" t="s">
         <v>3370</v>
       </c>
@@ -39254,7 +39256,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A597" s="1" t="s">
         <v>3376</v>
       </c>
@@ -39274,7 +39276,7 @@
         <v>3381</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A598" s="1" t="s">
         <v>3382</v>
       </c>
@@ -39297,7 +39299,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A599" s="1" t="s">
         <v>3388</v>
       </c>
@@ -39323,7 +39325,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A600" s="1" t="s">
         <v>3394</v>
       </c>
@@ -39349,7 +39351,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A601" s="1" t="s">
         <v>3400</v>
       </c>
@@ -39378,7 +39380,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A602" s="1" t="s">
         <v>3404</v>
       </c>
@@ -39404,7 +39406,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A603" s="1" t="s">
         <v>3198</v>
       </c>
@@ -39430,7 +39432,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A604" s="1" t="s">
         <v>3415</v>
       </c>
@@ -39459,7 +39461,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A605" s="1" t="s">
         <v>3420</v>
       </c>
@@ -39482,7 +39484,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A606" s="1" t="s">
         <v>3425</v>
       </c>
@@ -39511,7 +39513,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A607" s="1" t="s">
         <v>3431</v>
       </c>
@@ -39537,7 +39539,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A608" s="1" t="s">
         <v>3437</v>
       </c>
@@ -39569,7 +39571,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A609" s="1" t="s">
         <v>3443</v>
       </c>
@@ -39589,7 +39591,7 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A610" s="1" t="s">
         <v>3448</v>
       </c>
@@ -39612,7 +39614,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A611" s="1" t="s">
         <v>3448</v>
       </c>
@@ -39644,7 +39646,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A612" s="1" t="s">
         <v>3457</v>
       </c>
@@ -39664,7 +39666,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A613" s="1" t="s">
         <v>3463</v>
       </c>
@@ -39696,7 +39698,7 @@
         <v>3467</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A614" s="1" t="s">
         <v>3463</v>
       </c>
@@ -39728,7 +39730,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A615" s="1" t="s">
         <v>3472</v>
       </c>
@@ -39760,7 +39762,7 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A616" s="1" t="s">
         <v>3478</v>
       </c>
@@ -39786,7 +39788,7 @@
         <v>3483</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A617" s="1" t="s">
         <v>3478</v>
       </c>
@@ -39815,7 +39817,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A618" s="1" t="s">
         <v>3487</v>
       </c>
@@ -39841,7 +39843,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A619" s="1" t="s">
         <v>3487</v>
       </c>
@@ -39873,7 +39875,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A620" s="1" t="s">
         <v>3497</v>
       </c>
@@ -39893,7 +39895,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A621" s="1" t="s">
         <v>3503</v>
       </c>
@@ -39919,7 +39921,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A622" s="1" t="s">
         <v>3509</v>
       </c>
@@ -39939,7 +39941,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A623" s="1" t="s">
         <v>3515</v>
       </c>
@@ -39965,7 +39967,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A624" s="1" t="s">
         <v>3521</v>
       </c>
@@ -39994,7 +39996,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A625" s="1" t="s">
         <v>3527</v>
       </c>
@@ -40026,7 +40028,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A626" s="1" t="s">
         <v>3533</v>
       </c>
@@ -40052,7 +40054,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A627" s="1" t="s">
         <v>3128</v>
       </c>
@@ -40078,7 +40080,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A628" s="1" t="s">
         <v>3543</v>
       </c>
@@ -40101,7 +40103,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A629" s="1" t="s">
         <v>3549</v>
       </c>
@@ -40121,7 +40123,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A630" s="1" t="s">
         <v>3553</v>
       </c>
@@ -40144,7 +40146,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A631" s="1" t="s">
         <v>3559</v>
       </c>
@@ -40176,7 +40178,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A632" s="1" t="s">
         <v>3565</v>
       </c>
@@ -40202,7 +40204,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A633" s="1" t="s">
         <v>3571</v>
       </c>
@@ -40234,7 +40236,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A634" s="1" t="s">
         <v>3577</v>
       </c>
@@ -40263,7 +40265,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A635" s="1" t="s">
         <v>3582</v>
       </c>
@@ -40289,7 +40291,7 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A636" s="1" t="s">
         <v>3588</v>
       </c>
@@ -40315,7 +40317,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A637" s="1" t="s">
         <v>3588</v>
       </c>
@@ -40335,7 +40337,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A638" s="1" t="s">
         <v>3598</v>
       </c>
@@ -40355,7 +40357,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A639" s="1" t="s">
         <v>3604</v>
       </c>
@@ -40375,7 +40377,7 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A640" s="1" t="s">
         <v>3609</v>
       </c>
@@ -40404,7 +40406,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A641" s="1" t="s">
         <v>2411</v>
       </c>
@@ -40430,7 +40432,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A642" s="1" t="s">
         <v>3619</v>
       </c>
@@ -40456,7 +40458,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A643" s="1" t="s">
         <v>3624</v>
       </c>
@@ -40476,7 +40478,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A644" s="1" t="s">
         <v>3630</v>
       </c>
@@ -40499,7 +40501,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A645" s="1" t="s">
         <v>3488</v>
       </c>
@@ -40531,7 +40533,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A646" s="1" t="s">
         <v>3641</v>
       </c>
@@ -40563,7 +40565,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A647" s="1" t="s">
         <v>3646</v>
       </c>
@@ -40595,7 +40597,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A648" s="1" t="s">
         <v>3652</v>
       </c>
@@ -40615,7 +40617,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A649" s="1" t="s">
         <v>3658</v>
       </c>
@@ -40635,7 +40637,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A650" s="1" t="s">
         <v>3664</v>
       </c>
@@ -40667,7 +40669,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A651" s="1" t="s">
         <v>3670</v>
       </c>
@@ -40687,7 +40689,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A652" s="1" t="s">
         <v>3676</v>
       </c>
@@ -40719,7 +40721,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A653" s="1" t="s">
         <v>3680</v>
       </c>
@@ -40742,7 +40744,7 @@
         <v>3685</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A654" s="1" t="s">
         <v>3686</v>
       </c>
@@ -40774,7 +40776,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A655" s="1" t="s">
         <v>3686</v>
       </c>
@@ -40797,7 +40799,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A656" s="1" t="s">
         <v>3696</v>
       </c>
@@ -40820,7 +40822,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A657" s="1" t="s">
         <v>3702</v>
       </c>
@@ -40846,7 +40848,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A658" s="1" t="s">
         <v>3707</v>
       </c>
@@ -40875,7 +40877,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A659" s="1" t="s">
         <v>3713</v>
       </c>
@@ -40901,7 +40903,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A660" s="1" t="s">
         <v>3719</v>
       </c>
@@ -40933,7 +40935,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A661" s="1" t="s">
         <v>3725</v>
       </c>
@@ -40953,7 +40955,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A662" s="1" t="s">
         <v>3731</v>
       </c>
@@ -40979,7 +40981,7 @@
         <v>3736</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A663" s="1" t="s">
         <v>3737</v>
       </c>
@@ -41008,7 +41010,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A664" s="1" t="s">
         <v>3742</v>
       </c>
@@ -41037,7 +41039,7 @@
         <v>3747</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A665" s="1" t="s">
         <v>3748</v>
       </c>
@@ -41063,7 +41065,7 @@
         <v>3753</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A666" s="1" t="s">
         <v>3754</v>
       </c>
@@ -41095,7 +41097,7 @@
         <v>3759</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A667" s="1" t="s">
         <v>3760</v>
       </c>
@@ -41127,7 +41129,7 @@
         <v>3765</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A668" s="1" t="s">
         <v>3766</v>
       </c>
@@ -41147,7 +41149,7 @@
         <v>3769</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A669" s="1" t="s">
         <v>3770</v>
       </c>
@@ -41167,7 +41169,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A670" s="1" t="s">
         <v>3776</v>
       </c>
@@ -41187,7 +41189,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A671" s="1" t="s">
         <v>3780</v>
       </c>
@@ -41213,7 +41215,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A672" s="1" t="s">
         <v>3786</v>
       </c>
@@ -41245,7 +41247,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A673" s="1" t="s">
         <v>3792</v>
       </c>
@@ -41274,7 +41276,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A674" s="1" t="s">
         <v>3797</v>
       </c>
@@ -41294,7 +41296,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A675" s="1" t="s">
         <v>3803</v>
       </c>
@@ -41314,7 +41316,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A676" s="1" t="s">
         <v>3809</v>
       </c>
@@ -41334,7 +41336,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A677" s="1" t="s">
         <v>3815</v>
       </c>
@@ -41366,7 +41368,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A678" s="1" t="s">
         <v>3821</v>
       </c>
@@ -41398,7 +41400,7 @@
         <v>3826</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A679" s="1" t="s">
         <v>3821</v>
       </c>
@@ -41424,7 +41426,7 @@
         <v>3830</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A680" s="1" t="s">
         <v>3831</v>
       </c>
@@ -41450,7 +41452,7 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A681" s="1" t="s">
         <v>3837</v>
       </c>
@@ -41476,7 +41478,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A682" s="1" t="s">
         <v>3843</v>
       </c>
@@ -41502,7 +41504,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A683" s="1" t="s">
         <v>3847</v>
       </c>
@@ -41528,7 +41530,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A684" s="1" t="s">
         <v>3853</v>
       </c>
@@ -41551,7 +41553,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A685" s="1" t="s">
         <v>3859</v>
       </c>
@@ -41574,7 +41576,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A686" s="1" t="s">
         <v>3865</v>
       </c>
@@ -41594,7 +41596,7 @@
         <v>3870</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A687" s="1" t="s">
         <v>3871</v>
       </c>
@@ -41617,7 +41619,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A688" s="1" t="s">
         <v>3877</v>
       </c>
@@ -41646,7 +41648,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A689" s="1" t="s">
         <v>3883</v>
       </c>
@@ -41666,7 +41668,7 @@
         <v>3888</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A690" s="1" t="s">
         <v>3889</v>
       </c>
@@ -41686,7 +41688,7 @@
         <v>3894</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A691" s="1" t="s">
         <v>3895</v>
       </c>
@@ -41712,7 +41714,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A692" s="1" t="s">
         <v>3899</v>
       </c>
@@ -41741,7 +41743,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A693" s="1" t="s">
         <v>3905</v>
       </c>
@@ -41764,7 +41766,7 @@
         <v>3910</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A694" s="1" t="s">
         <v>3911</v>
       </c>
@@ -41796,7 +41798,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A695" s="1" t="s">
         <v>3917</v>
       </c>
@@ -41828,7 +41830,7 @@
         <v>3922</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A696" s="1" t="s">
         <v>3923</v>
       </c>
@@ -41860,7 +41862,7 @@
         <v>3926</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A697" s="1" t="s">
         <v>3923</v>
       </c>
@@ -41886,7 +41888,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A698" s="1" t="s">
         <v>3931</v>
       </c>
@@ -41915,7 +41917,7 @@
         <v>3933</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A699" s="1" t="s">
         <v>3934</v>
       </c>
@@ -41938,7 +41940,7 @@
         <v>3939</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A700" s="1" t="s">
         <v>3940</v>
       </c>
@@ -41970,7 +41972,7 @@
         <v>3945</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A701" s="1" t="s">
         <v>3946</v>
       </c>
@@ -41993,7 +41995,7 @@
         <v>3951</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A702" s="1" t="s">
         <v>3952</v>
       </c>
@@ -42019,7 +42021,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A703" s="1" t="s">
         <v>3958</v>
       </c>
@@ -42051,7 +42053,7 @@
         <v>3963</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A704" s="1" t="s">
         <v>3964</v>
       </c>
@@ -42071,7 +42073,7 @@
         <v>3969</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A705" s="1" t="s">
         <v>3970</v>
       </c>
@@ -42094,7 +42096,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A706" s="1" t="s">
         <v>3976</v>
       </c>
@@ -42126,7 +42128,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A707" s="1" t="s">
         <v>3981</v>
       </c>
@@ -42146,7 +42148,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A708" s="1" t="s">
         <v>3987</v>
       </c>
@@ -42178,7 +42180,7 @@
         <v>3990</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A709" s="1" t="s">
         <v>3991</v>
       </c>
@@ -42210,7 +42212,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A710" s="1" t="s">
         <v>3997</v>
       </c>
@@ -42236,7 +42238,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A711" s="1" t="s">
         <v>4003</v>
       </c>
@@ -42256,7 +42258,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A712" s="1" t="s">
         <v>4009</v>
       </c>
@@ -42276,7 +42278,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A713" s="1" t="s">
         <v>4015</v>
       </c>
@@ -42305,7 +42307,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A714" s="1" t="s">
         <v>3405</v>
       </c>
@@ -42331,7 +42333,7 @@
         <v>4024</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A715" s="1" t="s">
         <v>4025</v>
       </c>
@@ -42363,7 +42365,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A716" s="1" t="s">
         <v>4029</v>
       </c>
@@ -42395,7 +42397,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A717" s="1" t="s">
         <v>4033</v>
       </c>
@@ -42418,7 +42420,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A718" s="1" t="s">
         <v>527</v>
       </c>
@@ -42444,7 +42446,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A719" s="1" t="s">
         <v>4043</v>
       </c>
@@ -42464,7 +42466,7 @@
         <v>4048</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A720" s="1" t="s">
         <v>4049</v>
       </c>
@@ -42490,7 +42492,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A721" s="1" t="s">
         <v>4055</v>
       </c>
@@ -42513,7 +42515,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A722" s="1" t="s">
         <v>4061</v>
       </c>
@@ -42539,7 +42541,7 @@
         <v>4066</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A723" s="1" t="s">
         <v>4067</v>
       </c>
@@ -42559,7 +42561,7 @@
         <v>4072</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A724" s="1" t="s">
         <v>4073</v>
       </c>
@@ -42585,7 +42587,7 @@
         <v>4077</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A725" s="1" t="s">
         <v>4078</v>
       </c>
@@ -42617,7 +42619,7 @@
         <v>4083</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A726" s="1" t="s">
         <v>4084</v>
       </c>
@@ -42649,7 +42651,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A727" s="1" t="s">
         <v>4090</v>
       </c>
@@ -42678,7 +42680,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A728" s="1" t="s">
         <v>4096</v>
       </c>
@@ -42710,7 +42712,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A729" s="1" t="s">
         <v>4101</v>
       </c>
@@ -42739,7 +42741,7 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A730" s="1" t="s">
         <v>4106</v>
       </c>
@@ -42762,7 +42764,7 @@
         <v>4111</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A731" s="1" t="s">
         <v>4112</v>
       </c>
@@ -42782,7 +42784,7 @@
         <v>4117</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A732" s="1" t="s">
         <v>4118</v>
       </c>
@@ -42805,7 +42807,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A733" s="1" t="s">
         <v>4124</v>
       </c>
@@ -42837,7 +42839,7 @@
         <v>4129</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A734" s="1" t="s">
         <v>4130</v>
       </c>
@@ -42857,7 +42859,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A735" s="1" t="s">
         <v>4136</v>
       </c>
@@ -42889,7 +42891,7 @@
         <v>4141</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A736" s="1" t="s">
         <v>4142</v>
       </c>
@@ -42921,7 +42923,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A737" s="1" t="s">
         <v>4148</v>
       </c>
@@ -42953,7 +42955,7 @@
         <v>4151</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A738" s="1" t="s">
         <v>4152</v>
       </c>
@@ -42985,7 +42987,7 @@
         <v>4157</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A739" s="1" t="s">
         <v>4158</v>
       </c>
@@ -43017,7 +43019,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A740" s="1" t="s">
         <v>4161</v>
       </c>
@@ -43046,7 +43048,7 @@
         <v>4166</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A741" s="1" t="s">
         <v>2931</v>
       </c>
@@ -43078,7 +43080,7 @@
         <v>4171</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A742" s="1" t="s">
         <v>4172</v>
       </c>
@@ -43104,7 +43106,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A743" s="1" t="s">
         <v>4176</v>
       </c>
@@ -43124,7 +43126,7 @@
         <v>4181</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A744" s="1" t="s">
         <v>4182</v>
       </c>
@@ -43147,7 +43149,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A745" s="1" t="s">
         <v>4188</v>
       </c>
@@ -43173,7 +43175,7 @@
         <v>4193</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A746" s="1" t="s">
         <v>4194</v>
       </c>
@@ -43193,7 +43195,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A747" s="1" t="s">
         <v>4198</v>
       </c>
@@ -43216,7 +43218,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A748" s="1" t="s">
         <v>4204</v>
       </c>
@@ -43245,7 +43247,7 @@
         <v>4208</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A749" s="1" t="s">
         <v>4209</v>
       </c>
@@ -43265,7 +43267,7 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A750" s="1" t="s">
         <v>4214</v>
       </c>
@@ -43285,7 +43287,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A751" s="1" t="s">
         <v>4220</v>
       </c>
@@ -43305,7 +43307,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A752" s="1" t="s">
         <v>4226</v>
       </c>
@@ -43337,7 +43339,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A753" s="1" t="s">
         <v>4231</v>
       </c>
@@ -43357,7 +43359,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A754" s="1" t="s">
         <v>4237</v>
       </c>
@@ -43377,7 +43379,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A755" s="1" t="s">
         <v>4243</v>
       </c>
@@ -43409,7 +43411,7 @@
         <v>4247</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A756" s="1" t="s">
         <v>4248</v>
       </c>
@@ -43432,7 +43434,7 @@
         <v>4253</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A757" s="1" t="s">
         <v>4254</v>
       </c>
@@ -43452,7 +43454,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A758" s="1" t="s">
         <v>4260</v>
       </c>
@@ -43484,7 +43486,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A759" s="1" t="s">
         <v>4266</v>
       </c>
@@ -43510,7 +43512,7 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A760" s="1" t="s">
         <v>2967</v>
       </c>
@@ -43542,7 +43544,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A761" s="1" t="s">
         <v>4276</v>
       </c>
@@ -43574,7 +43576,7 @@
         <v>4281</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A762" s="1" t="s">
         <v>4282</v>
       </c>
@@ -43600,7 +43602,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A763" s="1" t="s">
         <v>4288</v>
       </c>
@@ -43626,7 +43628,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A764" s="1" t="s">
         <v>4294</v>
       </c>
@@ -43658,7 +43660,7 @@
         <v>4298</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A765" s="1" t="s">
         <v>4299</v>
       </c>
@@ -43681,7 +43683,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A766" s="1" t="s">
         <v>4305</v>
       </c>
@@ -43713,7 +43715,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A767" s="1" t="s">
         <v>4311</v>
       </c>
@@ -43739,7 +43741,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A768" s="1" t="s">
         <v>4317</v>
       </c>
@@ -43765,7 +43767,7 @@
         <v>4322</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A769" s="1" t="s">
         <v>4323</v>
       </c>
@@ -43785,7 +43787,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A770" s="1" t="s">
         <v>4329</v>
       </c>
@@ -43808,7 +43810,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A771" s="1" t="s">
         <v>4335</v>
       </c>
@@ -43831,7 +43833,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A772" s="1" t="s">
         <v>4335</v>
       </c>
@@ -43857,7 +43859,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A773" s="1" t="s">
         <v>4343</v>
       </c>
@@ -43889,7 +43891,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A774" s="1" t="s">
         <v>4349</v>
       </c>
@@ -43921,7 +43923,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A775" s="1" t="s">
         <v>4355</v>
       </c>
@@ -43941,7 +43943,7 @@
         <v>4360</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A776" s="1" t="s">
         <v>4361</v>
       </c>
@@ -43964,7 +43966,7 @@
         <v>4366</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A777" s="1" t="s">
         <v>4367</v>
       </c>
@@ -43996,7 +43998,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A778" s="1" t="s">
         <v>4373</v>
       </c>
@@ -44019,7 +44021,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A779" s="1" t="s">
         <v>4379</v>
       </c>
@@ -44045,7 +44047,7 @@
         <v>4382</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A780" s="1" t="s">
         <v>4383</v>
       </c>
@@ -44077,7 +44079,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A781" s="1" t="s">
         <v>4389</v>
       </c>
@@ -44109,7 +44111,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A782" s="1" t="s">
         <v>4394</v>
       </c>
@@ -44129,7 +44131,7 @@
         <v>4398</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A783" s="1" t="s">
         <v>4399</v>
       </c>
@@ -44161,7 +44163,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A784" s="1" t="s">
         <v>4405</v>
       </c>
@@ -44184,7 +44186,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A785" s="1" t="s">
         <v>4411</v>
       </c>
@@ -44204,7 +44206,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A786" s="1" t="s">
         <v>4417</v>
       </c>
@@ -44224,7 +44226,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A787" s="1" t="s">
         <v>4423</v>
       </c>
@@ -44250,7 +44252,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A788" s="1" t="s">
         <v>4429</v>
       </c>
@@ -44270,7 +44272,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A789" s="1" t="s">
         <v>4435</v>
       </c>
@@ -44302,7 +44304,7 @@
         <v>4440</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A790" s="1" t="s">
         <v>4441</v>
       </c>
@@ -44334,7 +44336,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A791" s="1" t="s">
         <v>4447</v>
       </c>
@@ -44360,7 +44362,7 @@
         <v>4452</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A792" s="1" t="s">
         <v>4453</v>
       </c>
@@ -44392,7 +44394,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A793" s="1" t="s">
         <v>4459</v>
       </c>
@@ -44424,7 +44426,7 @@
         <v>4464</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A794" s="1" t="s">
         <v>4465</v>
       </c>
@@ -44444,7 +44446,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A795" s="1" t="s">
         <v>4471</v>
       </c>
@@ -44464,7 +44466,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A796" s="1" t="s">
         <v>4477</v>
       </c>
@@ -44490,7 +44492,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A797" s="1" t="s">
         <v>4483</v>
       </c>
@@ -44513,7 +44515,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A798" s="1" t="s">
         <v>4489</v>
       </c>
@@ -44539,7 +44541,7 @@
         <v>4494</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A799" s="1" t="s">
         <v>4495</v>
       </c>
@@ -44565,7 +44567,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A800" s="1" t="s">
         <v>4501</v>
       </c>
@@ -44597,7 +44599,7 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A801" s="1" t="s">
         <v>4507</v>
       </c>
@@ -44617,7 +44619,7 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A802" s="1" t="s">
         <v>4513</v>
       </c>
@@ -44637,7 +44639,7 @@
         <v>4518</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A803" s="1" t="s">
         <v>4519</v>
       </c>
@@ -44657,7 +44659,7 @@
         <v>4524</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A804" s="1" t="s">
         <v>4525</v>
       </c>
@@ -44683,7 +44685,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A805" s="1" t="s">
         <v>4531</v>
       </c>
@@ -44715,7 +44717,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A806" s="1" t="s">
         <v>4537</v>
       </c>
@@ -44735,7 +44737,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A807" s="1" t="s">
         <v>633</v>
       </c>
@@ -44761,7 +44763,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A808" s="1" t="s">
         <v>4547</v>
       </c>
@@ -44787,7 +44789,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A809" s="1" t="s">
         <v>4551</v>
       </c>
@@ -44807,7 +44809,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A810" s="1" t="s">
         <v>4555</v>
       </c>
@@ -44830,7 +44832,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A811" s="1" t="s">
         <v>4561</v>
       </c>
@@ -44859,7 +44861,7 @@
         <v>4566</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A812" s="1" t="s">
         <v>4567</v>
       </c>
@@ -44891,7 +44893,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A813" s="1" t="s">
         <v>4573</v>
       </c>
@@ -44917,7 +44919,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A814" s="1" t="s">
         <v>4579</v>
       </c>
@@ -44946,7 +44948,7 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A815" s="1" t="s">
         <v>4585</v>
       </c>
@@ -44975,7 +44977,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A816" s="1" t="s">
         <v>4591</v>
       </c>
@@ -45001,7 +45003,7 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A817" s="1" t="s">
         <v>4597</v>
       </c>
@@ -45021,7 +45023,7 @@
         <v>4602</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A818" s="1" t="s">
         <v>4603</v>
       </c>
@@ -45041,7 +45043,7 @@
         <v>4608</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A819" s="1" t="s">
         <v>4609</v>
       </c>
@@ -45070,7 +45072,7 @@
         <v>4614</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A820" s="1" t="s">
         <v>4615</v>
       </c>
@@ -45093,7 +45095,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A821" s="1" t="s">
         <v>4621</v>
       </c>
@@ -45122,7 +45124,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A822" s="1" t="s">
         <v>4627</v>
       </c>
@@ -45154,7 +45156,7 @@
         <v>4632</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A823" s="1" t="s">
         <v>4633</v>
       </c>
@@ -45180,7 +45182,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A824" s="1" t="s">
         <v>4638</v>
       </c>
@@ -45200,7 +45202,7 @@
         <v>4643</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A825" s="1" t="s">
         <v>4644</v>
       </c>
@@ -45226,7 +45228,7 @@
         <v>4649</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A826" s="1" t="s">
         <v>4650</v>
       </c>
@@ -45252,7 +45254,7 @@
         <v>4655</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A827" s="1" t="s">
         <v>4656</v>
       </c>
@@ -45281,7 +45283,7 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A828" s="1" t="s">
         <v>4662</v>
       </c>
@@ -45304,7 +45306,7 @@
         <v>4667</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A829" s="1" t="s">
         <v>4668</v>
       </c>
@@ -45333,7 +45335,7 @@
         <v>4672</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A830" s="1" t="s">
         <v>4668</v>
       </c>
@@ -45356,7 +45358,7 @@
         <v>4676</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A831" s="1" t="s">
         <v>4677</v>
       </c>
@@ -45382,7 +45384,7 @@
         <v>4682</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A832" s="1" t="s">
         <v>4683</v>
       </c>
@@ -45405,7 +45407,7 @@
         <v>4688</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A833" s="1" t="s">
         <v>4689</v>
       </c>
@@ -45431,7 +45433,7 @@
         <v>4694</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A834" s="1" t="s">
         <v>4695</v>
       </c>
@@ -45454,7 +45456,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A835" s="1" t="s">
         <v>4701</v>
       </c>
@@ -45474,7 +45476,7 @@
         <v>4706</v>
       </c>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A836" s="1" t="s">
         <v>4707</v>
       </c>
@@ -45506,7 +45508,7 @@
         <v>4711</v>
       </c>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A837" s="1" t="s">
         <v>4712</v>
       </c>
@@ -45538,7 +45540,7 @@
         <v>4715</v>
       </c>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A838" s="1" t="s">
         <v>4716</v>
       </c>
@@ -45570,7 +45572,7 @@
         <v>4720</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A839" s="1" t="s">
         <v>4721</v>
       </c>
@@ -45602,7 +45604,7 @@
         <v>4725</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A840" s="1" t="s">
         <v>4726</v>
       </c>
@@ -45628,7 +45630,7 @@
         <v>4731</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A841" s="1" t="s">
         <v>4732</v>
       </c>
@@ -45654,7 +45656,7 @@
         <v>4736</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A842" s="1" t="s">
         <v>4737</v>
       </c>
@@ -45674,7 +45676,7 @@
         <v>4740</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A843" s="1" t="s">
         <v>4741</v>
       </c>
@@ -45694,7 +45696,7 @@
         <v>4746</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A844" s="1" t="s">
         <v>4747</v>
       </c>
@@ -45714,7 +45716,7 @@
         <v>4752</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A845" s="1" t="s">
         <v>4753</v>
       </c>
@@ -45734,7 +45736,7 @@
         <v>4758</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A846" s="1" t="s">
         <v>4759</v>
       </c>
@@ -45744,9 +45746,6 @@
       <c r="C846" s="1" t="s">
         <v>3931</v>
       </c>
-      <c r="D846" t="s">
-        <v>3681</v>
-      </c>
       <c r="E846" s="1" t="s">
         <v>2794</v>
       </c>
@@ -45766,7 +45765,7 @@
         <v>4762</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A847" s="1" t="s">
         <v>4763</v>
       </c>
@@ -45786,7 +45785,7 @@
         <v>4768</v>
       </c>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A848" s="1" t="s">
         <v>4769</v>
       </c>
@@ -45815,7 +45814,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A849" s="1" t="s">
         <v>201</v>
       </c>
@@ -45835,7 +45834,7 @@
         <v>4778</v>
       </c>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A850" s="1" t="s">
         <v>4779</v>
       </c>
@@ -45855,7 +45854,7 @@
         <v>4784</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A851" s="1" t="s">
         <v>4785</v>
       </c>
@@ -45875,7 +45874,7 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A852" s="1" t="s">
         <v>2405</v>
       </c>
@@ -45904,7 +45903,7 @@
         <v>4795</v>
       </c>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A853" s="1" t="s">
         <v>4796</v>
       </c>
@@ -45930,7 +45929,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A854" s="1" t="s">
         <v>4801</v>
       </c>
@@ -45962,7 +45961,7 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A855" s="1" t="s">
         <v>4806</v>
       </c>
@@ -45994,7 +45993,7 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A856" s="1" t="s">
         <v>4812</v>
       </c>
@@ -46014,7 +46013,7 @@
         <v>4817</v>
       </c>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A857" s="1" t="s">
         <v>4818</v>
       </c>
@@ -46034,7 +46033,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A858" s="1" t="s">
         <v>4824</v>
       </c>
@@ -46054,7 +46053,7 @@
         <v>4829</v>
       </c>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A859" s="1" t="s">
         <v>4830</v>
       </c>
@@ -46086,7 +46085,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A860" s="1" t="s">
         <v>4836</v>
       </c>
@@ -46112,7 +46111,7 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A861" s="1" t="s">
         <v>4841</v>
       </c>
@@ -46138,7 +46137,7 @@
         <v>4846</v>
       </c>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A862" s="1" t="s">
         <v>4847</v>
       </c>
@@ -46158,7 +46157,7 @@
         <v>4852</v>
       </c>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A863" s="1" t="s">
         <v>4853</v>
       </c>
@@ -46190,7 +46189,7 @@
         <v>4858</v>
       </c>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A864" s="1" t="s">
         <v>4859</v>
       </c>
@@ -46222,7 +46221,7 @@
         <v>4864</v>
       </c>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A865" s="1" t="s">
         <v>4865</v>
       </c>
@@ -46245,7 +46244,7 @@
         <v>4870</v>
       </c>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A866" s="1" t="s">
         <v>4871</v>
       </c>
@@ -46265,7 +46264,7 @@
         <v>4876</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A867" s="1" t="s">
         <v>4877</v>
       </c>
@@ -46297,7 +46296,7 @@
         <v>4882</v>
       </c>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A868" s="1" t="s">
         <v>4883</v>
       </c>
@@ -46326,7 +46325,7 @@
         <v>4888</v>
       </c>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A869" s="1" t="s">
         <v>4889</v>
       </c>
@@ -46349,7 +46348,7 @@
         <v>4894</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A870" s="1" t="s">
         <v>4895</v>
       </c>
@@ -46369,7 +46368,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A871" s="1" t="s">
         <v>4901</v>
       </c>
@@ -46392,7 +46391,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A872" s="1" t="s">
         <v>4901</v>
       </c>
@@ -46421,7 +46420,7 @@
         <v>4908</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A873" s="1" t="s">
         <v>4909</v>
       </c>
@@ -46447,7 +46446,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A874" s="1" t="s">
         <v>4915</v>
       </c>
@@ -46467,7 +46466,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A875" s="1" t="s">
         <v>4921</v>
       </c>
@@ -46493,7 +46492,7 @@
         <v>4926</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A876" s="1" t="s">
         <v>4927</v>
       </c>
@@ -46525,7 +46524,7 @@
         <v>4931</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A877" s="1" t="s">
         <v>4932</v>
       </c>
@@ -46557,7 +46556,7 @@
         <v>4935</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A878" s="1" t="s">
         <v>4932</v>
       </c>
@@ -46583,7 +46582,7 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A879" s="1" t="s">
         <v>4940</v>
       </c>
@@ -46609,7 +46608,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A880" s="1" t="s">
         <v>4944</v>
       </c>
@@ -46641,7 +46640,7 @@
         <v>4948</v>
       </c>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A881" s="1" t="s">
         <v>4949</v>
       </c>
@@ -46661,7 +46660,7 @@
         <v>4954</v>
       </c>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A882" s="1" t="s">
         <v>4955</v>
       </c>
@@ -46693,7 +46692,7 @@
         <v>4959</v>
       </c>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A883" s="1" t="s">
         <v>4960</v>
       </c>
@@ -46719,7 +46718,7 @@
         <v>4965</v>
       </c>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A884" s="1" t="s">
         <v>4966</v>
       </c>
@@ -46745,7 +46744,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A885" s="1" t="s">
         <v>4972</v>
       </c>
@@ -46777,7 +46776,7 @@
         <v>4977</v>
       </c>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A886" s="1" t="s">
         <v>4978</v>
       </c>
@@ -46797,7 +46796,7 @@
         <v>4983</v>
       </c>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A887" s="1" t="s">
         <v>4984</v>
       </c>
@@ -46829,7 +46828,7 @@
         <v>4989</v>
       </c>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A888" s="1" t="s">
         <v>4990</v>
       </c>
@@ -46849,7 +46848,7 @@
         <v>4993</v>
       </c>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A889" s="1" t="s">
         <v>4994</v>
       </c>
@@ -46869,7 +46868,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A890" s="1" t="s">
         <v>5000</v>
       </c>
@@ -46892,7 +46891,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A891" s="1" t="s">
         <v>5006</v>
       </c>
@@ -46924,7 +46923,7 @@
         <v>5011</v>
       </c>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A892" s="1" t="s">
         <v>5012</v>
       </c>
@@ -46953,7 +46952,7 @@
         <v>5016</v>
       </c>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A893" s="1" t="s">
         <v>5017</v>
       </c>
@@ -46979,7 +46978,7 @@
         <v>5022</v>
       </c>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A894" s="1" t="s">
         <v>5023</v>
       </c>
@@ -46999,7 +46998,7 @@
         <v>5028</v>
       </c>
     </row>
-    <row r="895" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A895" s="1" t="s">
         <v>5029</v>
       </c>
@@ -47028,7 +47027,7 @@
         <v>5034</v>
       </c>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A896" s="1" t="s">
         <v>5035</v>
       </c>
@@ -47060,7 +47059,7 @@
         <v>5039</v>
       </c>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A897" s="1" t="s">
         <v>5040</v>
       </c>
@@ -47080,7 +47079,7 @@
         <v>5045</v>
       </c>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A898" s="1" t="s">
         <v>5046</v>
       </c>
@@ -47103,7 +47102,7 @@
         <v>5051</v>
       </c>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A899" s="1" t="s">
         <v>5052</v>
       </c>
@@ -47123,7 +47122,7 @@
         <v>5057</v>
       </c>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A900" s="1" t="s">
         <v>5058</v>
       </c>
@@ -47146,7 +47145,7 @@
         <v>5063</v>
       </c>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A901" s="1" t="s">
         <v>5064</v>
       </c>
@@ -47169,7 +47168,7 @@
         <v>5069</v>
       </c>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A902" s="1" t="s">
         <v>5070</v>
       </c>
@@ -47189,7 +47188,7 @@
         <v>5075</v>
       </c>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A903" s="1" t="s">
         <v>5076</v>
       </c>
@@ -47215,7 +47214,7 @@
         <v>5081</v>
       </c>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A904" s="1" t="s">
         <v>5082</v>
       </c>
@@ -47235,7 +47234,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A905" s="1" t="s">
         <v>5088</v>
       </c>
@@ -47255,7 +47254,7 @@
         <v>5093</v>
       </c>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A906" s="1" t="s">
         <v>5094</v>
       </c>
@@ -47284,7 +47283,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A907" s="1" t="s">
         <v>5100</v>
       </c>
@@ -47304,7 +47303,7 @@
         <v>5105</v>
       </c>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A908" s="1" t="s">
         <v>5106</v>
       </c>
@@ -47330,7 +47329,7 @@
         <v>5111</v>
       </c>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A909" s="1" t="s">
         <v>5112</v>
       </c>
@@ -47359,7 +47358,7 @@
         <v>5117</v>
       </c>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A910" s="1" t="s">
         <v>5118</v>
       </c>
@@ -47388,7 +47387,7 @@
         <v>5123</v>
       </c>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A911" s="1" t="s">
         <v>5124</v>
       </c>
@@ -47408,7 +47407,7 @@
         <v>5129</v>
       </c>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A912" s="1" t="s">
         <v>5130</v>
       </c>
@@ -47440,7 +47439,7 @@
         <v>5135</v>
       </c>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A913" s="1" t="s">
         <v>5136</v>
       </c>
@@ -47460,7 +47459,7 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A914" s="1" t="s">
         <v>5142</v>
       </c>
@@ -47480,7 +47479,7 @@
         <v>5146</v>
       </c>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A915" s="1" t="s">
         <v>5147</v>
       </c>
@@ -47500,7 +47499,7 @@
         <v>5152</v>
       </c>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A916" s="1" t="s">
         <v>5153</v>
       </c>
@@ -47520,7 +47519,7 @@
         <v>5158</v>
       </c>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A917" s="1" t="s">
         <v>4884</v>
       </c>
@@ -47549,7 +47548,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A918" s="1" t="s">
         <v>5162</v>
       </c>
@@ -47578,7 +47577,7 @@
         <v>5167</v>
       </c>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A919" s="1" t="s">
         <v>5168</v>
       </c>
@@ -47607,7 +47606,7 @@
         <v>5172</v>
       </c>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A920" s="1" t="s">
         <v>5173</v>
       </c>
@@ -47639,7 +47638,7 @@
         <v>5178</v>
       </c>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A921" s="1" t="s">
         <v>5179</v>
       </c>
@@ -47671,7 +47670,7 @@
         <v>5184</v>
       </c>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A922" s="1" t="s">
         <v>5185</v>
       </c>
@@ -47697,7 +47696,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A923" s="1" t="s">
         <v>5191</v>
       </c>
@@ -47720,7 +47719,7 @@
         <v>5195</v>
       </c>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A924" s="1" t="s">
         <v>5196</v>
       </c>
@@ -47740,7 +47739,7 @@
         <v>5201</v>
       </c>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A925" s="1" t="s">
         <v>5202</v>
       </c>
@@ -47766,7 +47765,7 @@
         <v>5207</v>
       </c>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A926" s="1" t="s">
         <v>5208</v>
       </c>
@@ -47798,7 +47797,7 @@
         <v>5211</v>
       </c>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A927" s="1" t="s">
         <v>5212</v>
       </c>
@@ -47824,7 +47823,7 @@
         <v>5217</v>
       </c>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A928" s="1" t="s">
         <v>5218</v>
       </c>
@@ -47844,7 +47843,7 @@
         <v>5223</v>
       </c>
     </row>
-    <row r="929" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A929" s="1" t="s">
         <v>5224</v>
       </c>
@@ -47864,7 +47863,7 @@
         <v>5229</v>
       </c>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A930" s="1" t="s">
         <v>5230</v>
       </c>
@@ -47893,7 +47892,7 @@
         <v>5235</v>
       </c>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A931" s="1" t="s">
         <v>5236</v>
       </c>
@@ -47922,7 +47921,7 @@
         <v>5241</v>
       </c>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A932" s="1" t="s">
         <v>5242</v>
       </c>
@@ -47945,7 +47944,7 @@
         <v>5247</v>
       </c>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A933" s="1" t="s">
         <v>5248</v>
       </c>
@@ -47968,7 +47967,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A934" s="1" t="s">
         <v>5254</v>
       </c>
@@ -48000,7 +47999,7 @@
         <v>5258</v>
       </c>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A935" s="1" t="s">
         <v>5259</v>
       </c>
@@ -48032,7 +48031,7 @@
         <v>5264</v>
       </c>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A936" s="1" t="s">
         <v>5259</v>
       </c>
@@ -48064,7 +48063,7 @@
         <v>5268</v>
       </c>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A937" s="1" t="s">
         <v>5269</v>
       </c>
@@ -48090,7 +48089,7 @@
         <v>5274</v>
       </c>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A938" s="1" t="s">
         <v>141</v>
       </c>
@@ -48110,7 +48109,7 @@
         <v>5279</v>
       </c>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A939" s="1" t="s">
         <v>5280</v>
       </c>
@@ -48130,7 +48129,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A940" s="1" t="s">
         <v>5286</v>
       </c>
@@ -48162,7 +48161,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A941" s="1" t="s">
         <v>5292</v>
       </c>
@@ -48194,7 +48193,7 @@
         <v>5295</v>
       </c>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A942" s="1" t="s">
         <v>5296</v>
       </c>
@@ -48226,7 +48225,7 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="943" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A943" s="1" t="s">
         <v>5302</v>
       </c>
@@ -48246,7 +48245,7 @@
         <v>5306</v>
       </c>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A944" s="1" t="s">
         <v>5307</v>
       </c>
@@ -48269,7 +48268,7 @@
         <v>5312</v>
       </c>
     </row>
-    <row r="945" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A945" s="1" t="s">
         <v>5313</v>
       </c>
@@ -48301,7 +48300,7 @@
         <v>5318</v>
       </c>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A946" s="1" t="s">
         <v>5319</v>
       </c>
@@ -48333,7 +48332,7 @@
         <v>5324</v>
       </c>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A947" s="1" t="s">
         <v>5325</v>
       </c>
@@ -48356,7 +48355,7 @@
         <v>5330</v>
       </c>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A948" s="1" t="s">
         <v>5331</v>
       </c>
@@ -48388,7 +48387,7 @@
         <v>5336</v>
       </c>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A949" s="1" t="s">
         <v>5331</v>
       </c>
@@ -48408,7 +48407,7 @@
         <v>5340</v>
       </c>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A950" s="1" t="s">
         <v>5341</v>
       </c>
@@ -48440,7 +48439,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A951" s="1" t="s">
         <v>5346</v>
       </c>
@@ -48469,7 +48468,7 @@
         <v>5350</v>
       </c>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A952" s="1" t="s">
         <v>5351</v>
       </c>
@@ -48498,7 +48497,7 @@
         <v>5356</v>
       </c>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A953" s="1" t="s">
         <v>5357</v>
       </c>
@@ -48524,7 +48523,7 @@
         <v>5362</v>
       </c>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A954" s="1" t="s">
         <v>5363</v>
       </c>
@@ -48556,7 +48555,7 @@
         <v>5367</v>
       </c>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A955" s="1" t="s">
         <v>5368</v>
       </c>
@@ -48576,7 +48575,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A956" s="1" t="s">
         <v>5374</v>
       </c>
@@ -48596,7 +48595,7 @@
         <v>5379</v>
       </c>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A957" s="1" t="s">
         <v>5380</v>
       </c>
@@ -48628,7 +48627,7 @@
         <v>5385</v>
       </c>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A958" s="1" t="s">
         <v>5386</v>
       </c>
@@ -48654,7 +48653,7 @@
         <v>5391</v>
       </c>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A959" s="1" t="s">
         <v>5392</v>
       </c>
@@ -48680,7 +48679,7 @@
         <v>5397</v>
       </c>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A960" s="1" t="s">
         <v>5398</v>
       </c>
@@ -48700,7 +48699,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A961" s="1" t="s">
         <v>5404</v>
       </c>
@@ -48720,7 +48719,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A962" s="1" t="s">
         <v>5410</v>
       </c>
@@ -48740,7 +48739,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A963" s="1" t="s">
         <v>5416</v>
       </c>
@@ -48760,7 +48759,7 @@
         <v>5421</v>
       </c>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A964" s="1" t="s">
         <v>5422</v>
       </c>
@@ -48786,7 +48785,7 @@
         <v>5427</v>
       </c>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A965" s="1" t="s">
         <v>5428</v>
       </c>
@@ -48806,7 +48805,7 @@
         <v>5433</v>
       </c>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A966" s="1" t="s">
         <v>5434</v>
       </c>
@@ -48835,7 +48834,7 @@
         <v>5439</v>
       </c>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A967" s="1" t="s">
         <v>5440</v>
       </c>
@@ -48867,7 +48866,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A968" s="1" t="s">
         <v>5446</v>
       </c>
@@ -48893,7 +48892,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A969" s="1" t="s">
         <v>5451</v>
       </c>
@@ -48925,7 +48924,7 @@
         <v>5456</v>
       </c>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A970" s="1" t="s">
         <v>5457</v>
       </c>
@@ -48951,7 +48950,7 @@
         <v>5462</v>
       </c>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A971" s="1" t="s">
         <v>5463</v>
       </c>
@@ -48983,7 +48982,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A972" s="1" t="s">
         <v>5469</v>
       </c>
@@ -49012,7 +49011,7 @@
         <v>5474</v>
       </c>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A973" s="1" t="s">
         <v>5475</v>
       </c>
@@ -49044,7 +49043,7 @@
         <v>5479</v>
       </c>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A974" s="1" t="s">
         <v>5480</v>
       </c>
@@ -49073,7 +49072,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A975" s="1" t="s">
         <v>5484</v>
       </c>
@@ -49093,7 +49092,7 @@
         <v>5489</v>
       </c>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A976" s="1" t="s">
         <v>5490</v>
       </c>
@@ -49122,7 +49121,7 @@
         <v>5494</v>
       </c>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A977" s="1" t="s">
         <v>5495</v>
       </c>
@@ -49145,7 +49144,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A978" s="1" t="s">
         <v>5501</v>
       </c>
@@ -49165,7 +49164,7 @@
         <v>5506</v>
       </c>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A979" s="1" t="s">
         <v>5507</v>
       </c>
@@ -49188,7 +49187,7 @@
         <v>5512</v>
       </c>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A980" s="1" t="s">
         <v>5513</v>
       </c>
@@ -49217,7 +49216,7 @@
         <v>5518</v>
       </c>
     </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A981" s="1" t="s">
         <v>5519</v>
       </c>
@@ -49237,7 +49236,7 @@
         <v>5524</v>
       </c>
     </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A982" s="1" t="s">
         <v>5525</v>
       </c>
@@ -49260,7 +49259,7 @@
         <v>5529</v>
       </c>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A983" s="1" t="s">
         <v>5530</v>
       </c>
@@ -49286,7 +49285,7 @@
         <v>5533</v>
       </c>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A984" s="1" t="s">
         <v>5534</v>
       </c>
@@ -49318,7 +49317,7 @@
         <v>5539</v>
       </c>
     </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A985" s="1" t="s">
         <v>5540</v>
       </c>
@@ -49338,7 +49337,7 @@
         <v>5545</v>
       </c>
     </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A986" s="1" t="s">
         <v>5546</v>
       </c>
@@ -49370,7 +49369,7 @@
         <v>5549</v>
       </c>
     </row>
-    <row r="987" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A987" s="1" t="s">
         <v>5550</v>
       </c>
@@ -49390,7 +49389,7 @@
         <v>5554</v>
       </c>
     </row>
-    <row r="988" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A988" s="1" t="s">
         <v>5555</v>
       </c>
@@ -49410,7 +49409,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="989" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A989" s="1" t="s">
         <v>5561</v>
       </c>
@@ -49436,7 +49435,7 @@
         <v>5564</v>
       </c>
     </row>
-    <row r="990" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A990" s="1" t="s">
         <v>5565</v>
       </c>
@@ -49459,7 +49458,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="991" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A991" s="1" t="s">
         <v>5571</v>
       </c>
@@ -49479,7 +49478,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="992" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A992" s="1" t="s">
         <v>5577</v>
       </c>
@@ -49499,7 +49498,7 @@
         <v>5582</v>
       </c>
     </row>
-    <row r="993" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A993" s="1" t="s">
         <v>5583</v>
       </c>
@@ -49525,7 +49524,7 @@
         <v>5588</v>
       </c>
     </row>
-    <row r="994" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A994" s="1" t="s">
         <v>5589</v>
       </c>
@@ -49545,7 +49544,7 @@
         <v>5594</v>
       </c>
     </row>
-    <row r="995" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A995" s="1" t="s">
         <v>5595</v>
       </c>
@@ -49577,7 +49576,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="996" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A996" s="1" t="s">
         <v>5601</v>
       </c>
@@ -49597,7 +49596,7 @@
         <v>5606</v>
       </c>
     </row>
-    <row r="997" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A997" s="1" t="s">
         <v>5607</v>
       </c>
@@ -49629,7 +49628,7 @@
         <v>5612</v>
       </c>
     </row>
-    <row r="998" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A998" s="1" t="s">
         <v>5613</v>
       </c>
@@ -49652,7 +49651,7 @@
         <v>5617</v>
       </c>
     </row>
-    <row r="999" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A999" s="1" t="s">
         <v>5618</v>
       </c>
@@ -49684,7 +49683,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="1000" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1000" s="1" t="s">
         <v>5624</v>
       </c>
@@ -49704,7 +49703,7 @@
         <v>5629</v>
       </c>
     </row>
-    <row r="1001" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1001" s="1" t="s">
         <v>5630</v>
       </c>
